--- a/data/trans_camb/P54_A_7_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; -4,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; -2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; -4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; -2,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; -4,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,87; -2,93</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,97%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,99; -48,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,33; -80,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,89; -37,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,04; -89,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,79; -51,97</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,68</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; -3,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -2,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,5; -5,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; -3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; -4,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; -3,22</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,41%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-91,23; -46,62</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-89,81; -57,08</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,57; -61,93</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; -1,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; -1,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; -0,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; -1,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 0,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,27%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-82,83; 209,74</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 129,79</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,01; 62,72</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,19</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; -4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; -2,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; -5,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; -3,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; -5,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; -3,2</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,06%</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,34 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,13; -51,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,05; -89,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,96; -55,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,46; -94,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,56; -59,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_7_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,303 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,35</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.650322614340815</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.286395190010206</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.686263786740826</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.379877645632581</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-6.183203406636487</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-4.322668227823902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,71; -4,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; -2,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; -4,82</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; -2,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,54; -4,78</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; -2,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.7073602917838</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.50780894224896</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.210727641731809</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.856220688433931</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-7.534316309493186</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.859574577327716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-75,87%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-93,64%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-62,39%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-96,32%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-67,97%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-4.02448380844455</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.361692951692236</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-4.772168551061583</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-2.231942446126018</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-4.821884525750518</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-2.911299188367646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-87,99; -48,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-98,33; -80,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-77,89; -37,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-99,04; -89,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-78,79; -51,97</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.7586106993485843</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9402117336132825</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.6158913984788459</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9655083386150679</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.6749854314271571</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.8800844872283975</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9846291949226881</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7709245404768991</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7853144226624902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; -3,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; -2,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; -5,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,9; -3,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; -4,66</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; -3,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>-0.48800037354142</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.8136364708294291</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.3622929900357645</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.9031755208926658</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.516514135514365</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-77,29%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-77,58%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-77,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.974375128266908</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.813073829093835</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.162668969257869</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.571351011810815</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-6.051521317807873</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-4.675594614933858</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-91,23; -46,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-89,81; -57,08</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-87,57; -61,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.948355794064732</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.059190814738642</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.580190797506468</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.936345825145952</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.616545939379121</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-6.426757850019602</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-3.307850586521995</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.094140973427999</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.23954920025176</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-3.116295818424024</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-4.666223302261972</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-3.195710100642805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; -1,94</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 3,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; -1,4</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; -0,42</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,69; -1,97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 0,97</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.7665432804667316</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.7778317043162291</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.772631272267841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-22,23%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-82,87%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-46,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-0.909268287050268</v>
+      </c>
+      <c r="E14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-0.8991279893285513</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.8748137670605515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-82,83; 209,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 129,79</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-86,01; 62,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>-0.4494801628445937</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>-0.576962810715732</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>-0.6116677457934552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +912,301 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-5,86</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.560027950222693</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.9815724947309867</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.237266738624698</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-2.684728138232318</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-3.904443151596073</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-1.790889746171008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; -4,14</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; -2,35</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; -5,22</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; -3,17</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; -5,03</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; -3,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.486691183045195</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.226806124508256</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.285894219202027</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-6.280958917558436</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-6.774761375590117</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-4.730064291183737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-70,72%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-96,59%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-69,64%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-98,06%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-70,06%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-1.780888476110063</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.688423216243956</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-1.341093316115297</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-0.4277650119893516</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-2.090097640905501</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.9614968514113214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-82,13; -51,12</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-99,05; -89,47</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-79,96; -55,09</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-99,46; -94,37</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-78,56; -59,53</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.2152558066410647</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.8293194089322656</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.4586799388893449</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.8271776428896339</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-0.8601973337170128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>2.126414070701375</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>1.277896905425244</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>0.6195296939614254</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.250522591831823</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.696118248536728</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-6.475317985490666</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-4.635875885809784</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-5.867528170099675</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-4.167195612450161</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.447975771066528</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.045225057575138</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-8.117143876660368</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-6.211315212401172</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-6.942144804889614</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-5.228748604111704</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-4.079152565770872</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-2.325982680829498</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-5.353509090506235</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-3.142970599374952</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-5.026746012175072</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-3.17693887389796</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.7039524511877611</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9680103633129105</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.6930278807236437</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9818389999060297</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.6973149602230809</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-0.8179965847434948</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.991128753428245</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.7970486555523851</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9948894443929444</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.7829983900171599</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>-0.4974656853085185</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8975733045596558</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.5473615152123519</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.9468905776262763</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.5889321359054949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1214,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
